--- a/old_image/catalogentry.xlsx
+++ b/old_image/catalogentry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="201">
   <si>
     <t>Path</t>
   </si>
@@ -561,6 +561,19 @@
   </si>
   <si>
     <t>Notes and comments about this catalog entry.</t>
+  </si>
+  <si>
+    <t>CatalogEntry.estimatedDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration
+</t>
+  </si>
+  <si>
+    <t>Estimated duration of the orderable item</t>
+  </si>
+  <si>
+    <t>Estimated duration of the orderable item of this  entry of the catalog.</t>
   </si>
   <si>
     <t>CatalogEntry.billingCode</t>
@@ -761,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3429,7 +3442,7 @@
         <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>38</v>
@@ -3438,7 +3451,7 @@
         <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>176</v>
@@ -3474,13 +3487,13 @@
         <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>38</v>
@@ -3504,7 +3517,7 @@
         <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>38</v>
@@ -3513,7 +3526,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3521,7 +3534,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3532,7 +3545,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>38</v>
@@ -3544,13 +3557,13 @@
         <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3577,13 +3590,13 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
@@ -3601,13 +3614,13 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>38</v>
@@ -3644,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>108</v>
@@ -3822,7 +3835,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -3830,7 +3843,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3856,10 +3869,10 @@
         <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3910,7 +3923,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -3928,6 +3941,109 @@
         <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
     </row>
